--- a/projects/Research_Plan/2024 Fall Timeline.xlsx
+++ b/projects/Research_Plan/2024 Fall Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihong/Documents/Projects/website-jihong/projects/Research Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihong/Documents/website-jihong/projects/Research_Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40104380-4035-7248-8283-5B17D478D6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB05CDB2-EB56-254F-977B-B3838381EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="20880" xr2:uid="{9FBC1349-5704-C543-899C-7BCA4C59232B}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="34640" windowHeight="24460" xr2:uid="{9FBC1349-5704-C543-899C-7BCA4C59232B}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -139,16 +139,43 @@
   </si>
   <si>
     <t>Initial Discussion with Co-authors</t>
+  </si>
+  <si>
+    <t>Final Exam</t>
+  </si>
+  <si>
+    <t>Academic Calendar</t>
+  </si>
+  <si>
+    <t>2025 Spring Classes Begin</t>
+  </si>
+  <si>
+    <t>Fall Break</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Thanksgiving Break</t>
+  </si>
+  <si>
+    <t>Christmas holiday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,7 +223,9 @@
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{0C987B7E-5DD8-294D-9F8B-C0A66951CF1F}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -211,6 +240,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EF70CBEF-8ED6-F648-9DAA-E1B9DDA6CDC6}" name="Table4" displayName="Table4" ref="C1:F87" totalsRowShown="0">
   <autoFilter ref="C1:F87" xr:uid="{EF70CBEF-8ED6-F648-9DAA-E1B9DDA6CDC6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:F87">
+    <sortCondition ref="C1:C87"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F07E8204-4B10-154B-96DC-5E40E86A8D68}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0E94C625-A070-7145-8B0D-804D5F925B34}" name="Task"/>
@@ -553,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D7EAAE-45B0-D441-8828-6DD48B922543}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2242,57 +2274,576 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" ref="A89:A92" si="0">WEEKNUM(C89,2)</f>
+        <f t="shared" ref="A89:A93" si="0">WEEKNUM(C89,2)</f>
         <v>50</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" ref="B89:B92" si="1">TEXT(C89,"dddd")</f>
-        <v>Sunday</v>
+        <f t="shared" ref="B89:B93" si="1">TEXT(C89,"dddd")</f>
+        <v>Monday</v>
       </c>
       <c r="C89" s="1">
-        <v>45641</v>
+        <v>45635</v>
+      </c>
+      <c r="D89" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>Monday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C90" s="1">
-        <v>45642</v>
+        <v>45636</v>
+      </c>
+      <c r="D90" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C91" s="1">
-        <v>45643</v>
+        <v>45637</v>
+      </c>
+      <c r="D91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D92" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45639</v>
+      </c>
+      <c r="D93" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" ref="A94:A118" si="2">WEEKNUM(C94,2)</f>
+        <v>50</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" ref="B94:B118" si="3">TEXT(C94,"dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C94" s="1">
+        <v>45641</v>
+      </c>
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="3"/>
+        <v>Monday</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45642</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="3"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45643</v>
+      </c>
+      <c r="D96" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="3"/>
         <v>Wednesday</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C97" s="1">
         <v>45644</v>
       </c>
+      <c r="D97" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="3"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45645</v>
+      </c>
+      <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="3"/>
+        <v>Friday</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D99" t="s">
+        <v>40</v>
+      </c>
+      <c r="E99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="3"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C100" s="1">
+        <v>45647</v>
+      </c>
+      <c r="D100" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C101" s="1">
+        <v>45648</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="3"/>
+        <v>Monday</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45649</v>
+      </c>
+      <c r="D102" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="3"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C103" s="1">
+        <v>45650</v>
+      </c>
+      <c r="D103" t="s">
+        <v>40</v>
+      </c>
+      <c r="E103" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="3"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C104" s="1">
+        <v>45651</v>
+      </c>
+      <c r="D104" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="3"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C105" s="1">
+        <v>45652</v>
+      </c>
+      <c r="D105" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="3"/>
+        <v>Friday</v>
+      </c>
+      <c r="C106" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D106" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="3"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C107" s="1">
+        <v>45654</v>
+      </c>
+      <c r="D107" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C108" s="1">
+        <v>45655</v>
+      </c>
+      <c r="D108" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="3"/>
+        <v>Monday</v>
+      </c>
+      <c r="C109" s="1">
+        <v>45656</v>
+      </c>
+      <c r="D109" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="3"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C110" s="1">
+        <v>45657</v>
+      </c>
+      <c r="D110" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="3"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C111" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D111" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="3"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C112" s="1">
+        <v>45623</v>
+      </c>
+      <c r="D112" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="3"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C113" s="1">
+        <v>45624</v>
+      </c>
+      <c r="D113" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="3"/>
+        <v>Friday</v>
+      </c>
+      <c r="C114" s="1">
+        <v>45625</v>
+      </c>
+      <c r="D114" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="3"/>
+        <v>Monday</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45579</v>
+      </c>
+      <c r="D115" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="3"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45580</v>
+      </c>
+      <c r="D116" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="3"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C117" s="1">
+        <v>45659</v>
+      </c>
+      <c r="D117" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="3"/>
+        <v>Friday</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45660</v>
+      </c>
+      <c r="D118" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
